--- a/data/trans_dic/P55$auxiliar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06217532711010577</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.225879222055567</v>
+        <v>0.2258792220555671</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0468607549336058</v>
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.04458961537522452</v>
+        <v>0.04365256290202993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02740931818797862</v>
+        <v>0.02678806453641366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1636408963562972</v>
+        <v>0.1645459116540213</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02183121381856635</v>
+        <v>0.02099739991631671</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1545037894844342</v>
+        <v>0.1560417237191467</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04268445618585337</v>
+        <v>0.04282781271565406</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2166042836015261</v>
+        <v>0.2206111693635592</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01416698945042799</v>
+        <v>0.01615303907555439</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1303891075007433</v>
+        <v>0.1339011432628276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0456249945979228</v>
+        <v>0.04612480151659618</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2142135120055787</v>
+        <v>0.2154950862041951</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.1509095815671095</v>
+        <v>0.1481974681145609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1223774073159542</v>
+        <v>0.1255269725212628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2968149391006381</v>
+        <v>0.295728511183836</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08721517850075876</v>
+        <v>0.0857250434714525</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2610964841737525</v>
+        <v>0.2660414126546379</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.125085666138741</v>
+        <v>0.1223339220799052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2931934252600617</v>
+        <v>0.2988200985005474</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05841876815263609</v>
+        <v>0.05676193141669708</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2058383603948548</v>
+        <v>0.2071968410284145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1076493556252551</v>
+        <v>0.1122598540789919</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2823727510931375</v>
+        <v>0.2800108570217133</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.02326649782380277</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.22901468082697</v>
+        <v>0.2290146808269701</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03018283101594618</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.08892670711543602</v>
+        <v>0.08923294589854117</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1601369285913004</v>
+        <v>0.1591099985753321</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1454098772300405</v>
+        <v>0.1438193994956393</v>
       </c>
     </row>
     <row r="9">
@@ -878,34 +878,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2568764775460488</v>
+        <v>0.2576967851998528</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2088090287644145</v>
+        <v>0.2397390852191601</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2570374951195166</v>
+        <v>0.254220156035578</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.1183523348810935</v>
+        <v>0.09679886351633003</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3183171975170193</v>
+        <v>0.3222913091025046</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1381415566317843</v>
+        <v>0.1806407309681504</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1133956436490636</v>
+        <v>0.124337275659339</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08392351004959298</v>
+        <v>0.08917507550205939</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.261372200821958</v>
+        <v>0.2591669667881831</v>
       </c>
     </row>
     <row r="10">
@@ -971,13 +971,13 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.02553470733253559</v>
+        <v>0.02561732122934478</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.01226268735426965</v>
+        <v>0.01253650106027805</v>
       </c>
     </row>
     <row r="12">
@@ -995,13 +995,13 @@
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.2941732916635325</v>
+        <v>0.3383683533758646</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1549229746123981</v>
+        <v>0.1581930081255905</v>
       </c>
     </row>
     <row r="13">
@@ -1063,37 +1063,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1383652822572581</v>
+        <v>0.1412572198876869</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1419652354855937</v>
+        <v>0.1399699085675585</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2095370643975203</v>
+        <v>0.2111253839319613</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1176435783593269</v>
+        <v>0.1195635947297016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.196421366114654</v>
+        <v>0.1982179974222864</v>
       </c>
     </row>
     <row r="15">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2324900049754088</v>
+        <v>0.2313327412284811</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.243773295852073</v>
+        <v>0.2338383553400514</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.277254882608894</v>
+        <v>0.2797456048531272</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.188938228651959</v>
+        <v>0.1870694066034866</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.25480353565688</v>
+        <v>0.2547886040361713</v>
       </c>
     </row>
     <row r="16">
@@ -1408,37 +1408,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>5535</v>
+        <v>5418</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2562</v>
+        <v>2504</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16981</v>
+        <v>17075</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4494</v>
+        <v>4322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>38756</v>
+        <v>39142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8902</v>
+        <v>8932</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>59959</v>
+        <v>61068</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4376</v>
+        <v>4989</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>48892</v>
+        <v>50209</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13780</v>
+        <v>13931</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>81526</v>
+        <v>82014</v>
       </c>
     </row>
     <row r="7">
@@ -1450,37 +1450,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>18732</v>
+        <v>18395</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11438</v>
+        <v>11732</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30801</v>
+        <v>30688</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17953</v>
+        <v>17647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65494</v>
+        <v>66735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26088</v>
+        <v>25514</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>81160</v>
+        <v>82717</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18044</v>
+        <v>17532</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>77183</v>
+        <v>77692</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32513</v>
+        <v>33905</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>107467</v>
+        <v>106568</v>
       </c>
     </row>
     <row r="8">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>4208</v>
+        <v>4223</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10033</v>
+        <v>9969</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15992</v>
+        <v>15817</v>
       </c>
     </row>
     <row r="11">
@@ -1621,34 +1621,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3645</v>
+        <v>3656</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4179</v>
+        <v>4798</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>12164</v>
+        <v>12030</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6159</v>
+        <v>5037</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19944</v>
+        <v>20193</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3825</v>
+        <v>5001</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>4668</v>
+        <v>5119</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6287</v>
+        <v>6681</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28745</v>
+        <v>28502</v>
       </c>
     </row>
     <row r="12">
@@ -1758,13 +1758,13 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
@@ -1782,13 +1782,13 @@
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4631</v>
+        <v>5327</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>5007</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="16">
@@ -1894,37 +1894,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23199</v>
+        <v>23684</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39242</v>
+        <v>38690</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>74430</v>
+        <v>74994</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>49715</v>
+        <v>50526</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>102704</v>
+        <v>103644</v>
       </c>
     </row>
     <row r="19">
@@ -1935,40 +1935,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38981</v>
+        <v>38787</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67384</v>
+        <v>64638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>98484</v>
+        <v>99369</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>79843</v>
+        <v>79053</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>133231</v>
+        <v>133223</v>
       </c>
     </row>
     <row r="20">
